--- a/output/rent_tash.xlsx
+++ b/output/rent_tash.xlsx
@@ -1,21 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.khamidov\Documents\09_september\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330BF1A4-C7E1-4961-A326-36D0B7C6A5DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-30" yWindow="585" windowWidth="14385" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>num_obs</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Bektemir</t>
+  </si>
+  <si>
+    <t>Chilonzor</t>
+  </si>
+  <si>
+    <t>Mirobod</t>
+  </si>
+  <si>
+    <t>Mirzo-Ulugbek</t>
+  </si>
+  <si>
+    <t>Olmazor</t>
+  </si>
+  <si>
+    <t>Sergeli</t>
+  </si>
+  <si>
+    <t>Shayhontohur</t>
+  </si>
+  <si>
+    <t>Uchtepa</t>
+  </si>
+  <si>
+    <t>Yakkasaroy</t>
+  </si>
+  <si>
+    <t>Yashnobod</t>
+  </si>
+  <si>
+    <t>Yunusobod</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,24 +124,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,9 +188,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +222,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,9 +274,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,285 +467,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>num_obs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bektemir</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>11.85245300162448</v>
+        <v>8.4333759208816321</v>
       </c>
       <c r="C2">
-        <v>5.833333333333333</v>
+        <v>7.3170731707317076</v>
       </c>
       <c r="D2">
-        <v>175</v>
+        <v>1805</v>
       </c>
       <c r="E2">
-        <v>0.268595041322314</v>
+        <v>6.3826461154626576E-2</v>
       </c>
       <c r="F2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chilonzor</t>
-        </is>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>9.161729508428337</v>
+        <v>7.7594803590702401</v>
       </c>
       <c r="C3">
+        <v>5.4616477272727266</v>
+      </c>
+      <c r="D3">
+        <v>186</v>
+      </c>
+      <c r="E3">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="F3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>2271</v>
-      </c>
-      <c r="E3">
-        <v>0.08448838192339385</v>
-      </c>
-      <c r="F3">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mirobod</t>
-        </is>
-      </c>
       <c r="B4">
-        <v>11.99080642698038</v>
+        <v>13.41375761829203</v>
       </c>
       <c r="C4">
-        <v>10.8</v>
+        <v>10.82792207792208</v>
       </c>
       <c r="D4">
-        <v>1801</v>
+        <v>1786</v>
       </c>
       <c r="E4">
-        <v>0.4334777208214324</v>
+        <v>0.4</v>
       </c>
       <c r="F4">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mirzo-Ulugbek</t>
-        </is>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>10.82585600091599</v>
+        <v>10.562685323016231</v>
       </c>
       <c r="C5">
-        <v>9.23076923076923</v>
+        <v>9.2307692307692299</v>
       </c>
       <c r="D5">
-        <v>2213</v>
+        <v>2138</v>
       </c>
       <c r="E5">
-        <v>0.1576282621168845</v>
+        <v>0.17955575885257591</v>
       </c>
       <c r="F5">
         <v>1300</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Olmazor</t>
-        </is>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>8.015499769413472</v>
+        <v>10.127486324755241</v>
       </c>
       <c r="C6">
-        <v>7.333333333333333</v>
+        <v>6.4516129032258061</v>
       </c>
       <c r="D6">
-        <v>1816</v>
+        <v>1887</v>
       </c>
       <c r="E6">
-        <v>0.07881413105844225</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="F6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sergeli</t>
-        </is>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>9.348872583139508</v>
+        <v>8.5918967123267862</v>
       </c>
       <c r="C7">
-        <v>6.402802623732857</v>
+        <v>7.2727272727272716</v>
       </c>
       <c r="D7">
-        <v>1858</v>
+        <v>358</v>
       </c>
       <c r="E7">
-        <v>0.137924729352274</v>
+        <v>9.9979911179275197E-2</v>
       </c>
       <c r="F7">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Shayhontohur</t>
-        </is>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>11.65671635943938</v>
+        <v>8.9863501581649619</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>1884</v>
+        <v>2284</v>
       </c>
       <c r="E8">
-        <v>0.08448838192339385</v>
+        <v>8.7164496227128352E-2</v>
       </c>
       <c r="F8">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Uchtepa</t>
-        </is>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>7.99296779959759</v>
+        <v>11.536053117758421</v>
       </c>
       <c r="C9">
-        <v>7.372837297383775</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="D9">
-        <v>370</v>
+        <v>1680</v>
       </c>
       <c r="E9">
-        <v>0.5005005005005005</v>
+        <v>0.18483834835642879</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Yakkasaroy</t>
-        </is>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>12.63445737827992</v>
+        <v>8.8638698236638014</v>
       </c>
       <c r="C10">
-        <v>9.375</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D10">
-        <v>1936</v>
+        <v>2161</v>
       </c>
       <c r="E10">
-        <v>0.08571428571428572</v>
+        <v>9.1522721038484772E-2</v>
       </c>
       <c r="F10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>12.226600743002241</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1832</v>
+      </c>
+      <c r="E11">
+        <v>0.34682080924855491</v>
+      </c>
+      <c r="F11">
         <v>1000</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Yashnobod</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8.752949661262804</v>
-      </c>
-      <c r="C11">
-        <v>8.088235294117647</v>
-      </c>
-      <c r="D11">
-        <v>1811</v>
-      </c>
-      <c r="E11">
-        <v>0.2531637558108993</v>
-      </c>
-      <c r="F11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Yunusobod</t>
-        </is>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>10.02784229458025</v>
+        <v>9.3658792863871092</v>
       </c>
       <c r="C12">
-        <v>8.333333333333334</v>
+        <v>8.0882352941176467</v>
       </c>
       <c r="D12">
-        <v>2180</v>
+        <v>1856</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
+        <v>0.2233333333333333</v>
       </c>
       <c r="F12">
-        <v>750</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>8.4333759208816321</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7.3170731707317076</v>
+      </c>
+      <c r="D19">
+        <v>1805</v>
+      </c>
+      <c r="E19">
+        <v>6.3826461154626576E-2</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>9.3658792863871092</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.0882352941176467</v>
+      </c>
+      <c r="D20">
+        <v>1856</v>
+      </c>
+      <c r="E20">
+        <v>0.2233333333333333</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>8.8638698236638014</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D21">
+        <v>2161</v>
+      </c>
+      <c r="E21">
+        <v>9.1522721038484772E-2</v>
+      </c>
+      <c r="F21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>7.7594803590702401</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5.4616477272727266</v>
+      </c>
+      <c r="D22">
+        <v>186</v>
+      </c>
+      <c r="E22">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="F22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>8.9863501581649619</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2284</v>
+      </c>
+      <c r="E23">
+        <v>8.7164496227128352E-2</v>
+      </c>
+      <c r="F23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>13.41375761829203</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10.82792207792208</v>
+      </c>
+      <c r="D24">
+        <v>1786</v>
+      </c>
+      <c r="E24">
+        <v>0.4</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>10.562685323016231</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9.2307692307692299</v>
+      </c>
+      <c r="D25">
+        <v>2138</v>
+      </c>
+      <c r="E25">
+        <v>0.17955575885257591</v>
+      </c>
+      <c r="F25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>10.127486324755241</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6.4516129032258061</v>
+      </c>
+      <c r="D26">
+        <v>1887</v>
+      </c>
+      <c r="E26">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F26">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>11.536053117758421</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="D27">
+        <v>1680</v>
+      </c>
+      <c r="E27">
+        <v>0.18483834835642879</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>8.5918967123267862</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7.2727272727272716</v>
+      </c>
+      <c r="D28">
+        <v>358</v>
+      </c>
+      <c r="E28">
+        <v>9.9979911179275197E-2</v>
+      </c>
+      <c r="F28">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>12.226600743002241</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>1832</v>
+      </c>
+      <c r="E29">
+        <v>0.34682080924855491</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
